--- a/for Hector/Tom/mrn1Left-lookup.xlsx
+++ b/for Hector/Tom/mrn1Left-lookup.xlsx
@@ -337,10 +337,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -629,7 +632,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="A1:I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -645,814 +648,814 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2">
         <v>1984</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="2">
         <v>0.22700000000000001</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2">
         <v>1984</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <v>0.75</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2">
         <v>1986</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <v>1.9</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2">
         <v>1993</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <v>0.9</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2">
         <v>1994</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <v>1.343</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2">
         <v>1994</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2">
         <v>1995</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="2">
         <v>8.2799999999999994</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2">
         <v>1999</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="2">
         <v>11.7</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2">
         <v>2001</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="2">
         <v>0.35499999999999998</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2">
         <v>2003</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="2">
         <v>15</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="2">
         <v>2007</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="2">
         <v>2.9990000000000001</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2">
         <v>2010</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="2">
         <v>7.1</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="C14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2">
         <v>2010</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="2">
         <v>0.05</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="2">
         <v>2010</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="2">
         <v>3.3</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="C16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="2">
         <v>2010</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="2">
         <v>0.06</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="C17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="2">
         <v>2010</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="2">
         <v>1.1100000000000001</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="C18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="2">
         <v>2010</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="2">
         <v>2.359</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="C19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="2">
         <v>2010</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="2">
         <v>0.79100000000000004</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="C20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2">
         <v>2010</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="2">
         <v>3.35</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="C21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="2">
         <v>2010</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="2">
         <v>1.36</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="C22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="2">
         <v>2012</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="2">
         <v>3.9089999999999998</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="C23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="2">
         <v>2011</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="2">
         <v>4.3</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="C24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="2">
         <v>2011</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="2">
         <v>1</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="C25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="2">
         <v>2012</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="2">
         <v>13</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="C26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="2">
         <v>2019</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="2">
         <v>10.329000000000001</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="C27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="2">
         <v>2019</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="2">
         <v>12.085000000000001</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="1">
+      <c r="C28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="2">
         <v>2020</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="2">
         <v>8.7609999999999992</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="1" t="s">
         <v>42</v>
       </c>
     </row>
